--- a/네이버뉴스/data/sports.xlsx
+++ b/네이버뉴스/data/sports.xlsx
@@ -448,240 +448,240 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>'축구황제' 펠레, 결장 종양 치료 후 퇴원</t>
+          <t>“다 어딨니?” 경기 중단에도 ‘안갯속’ 20분간 홀로 남은 GK 사연</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:11</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>'간만에 의견 일치'… 콘테·클롭 감독 "EFL컵 4강전 한 번만 하자"</t>
+          <t>'1590억 사나이' 그릴리쉬, "맨시티 적응 힘들지만...더 잘할 수 있어!"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.24 09:26</t>
+          <t>2021.12.26 16:55</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>'레전드' 박지성 등장에 QPR 유소년들 넋 나갔다, "훈련 해야 하는데..."</t>
+          <t>'18G 41실점' 뉴캐슬, 트리피어로 수비 보강...ATM '제안 대기'</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.24 09:25</t>
+          <t>2021.12.26 16:52</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>정우영, 프라이부르크와 계약 연장..."전반기 만족스러웠다"</t>
+          <t>퇴물 반박 1년 만에, 이제는 유럽 떠나야 하나…남미서 러브콜</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.24 09:24</t>
+          <t>2021.12.26 16:49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>토트넘 성골의 부활 비결은 역시 콘테... “철학 받아들였다”</t>
+          <t>'결승골만 4골' 손흥민, 2021년 PL 올해의 팀 선정</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.24 09:21</t>
+          <t>2021.12.26 16:33</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[오피셜] '황희찬 소속팀' 울버햄튼, 왓포드전 연기…리버풀-리즈 맞대결도 순연</t>
+          <t>실패작 속속히 정리...바르사, 데미르와 계약 종료→135억 '절약'</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.24 09:21</t>
+          <t>2021.12.26 16:22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[오피셜] 정우영, 프라이부르크와 재계약..."가능한 많은 것 이루고 싶다"</t>
+          <t>'브레멘 1군 0경기' 박규현, 임대 이적할 듯</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.24 09:21</t>
+          <t>2021.12.26 16:21</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>카라바오컵서 구급 대원 폭행한 토트넘·웨스트햄 팬 5명 체포</t>
+          <t>'팀 최다득점' 황희찬, 올 시즌 울버햄튼 최고의 영입 2위</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.24 09:18</t>
+          <t>2021.12.26 16:17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>'2015억' 홀란드, '정우영-이재성 팀 포함' 분데스 9팀보다 가치↑</t>
+          <t>알제리 선수, 경기 도중 심장마비로 사망..."결혼 일주일 만에 떠났다"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.24 09:16</t>
+          <t>2021.12.26 16:13</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>분데스리가에 등장한 욱일기, 서경덕 전 구단 항의</t>
+          <t>'1,619분 소화' 토트넘 출전시간 3위…정작 주급은 '최하위' 아이러니</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.24 09:16</t>
+          <t>2021.12.26 16:06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2% 부족한 560억 첼시 윙어. AC 밀란이 노린다</t>
+          <t>포그바 아끼던 英 매체 강력 주장 "서로 위해 맨유 떠나야"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.24 09:11</t>
+          <t>2021.12.26 15:53</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>아르테타, "누구나 실수한다"...'주장 박탈' 오바메양 5경기 만에 출전하나</t>
+          <t>'역대급 윈-윈?' 바르샤-아스널, 골칫덩이간 스왑 시도</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.24 09:10</t>
+          <t>2021.12.26 15:43</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>급하긴 하나 보네...유베, '맨유-아스널 쫓겨날 위기' FW들 영입 추진</t>
+          <t>토트넘 신입생이 본 '열정 콘테'..."잘 먹어야 버텨요"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.24 08:56</t>
+          <t>2021.12.26 15:43</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>'황희찬 소속팀' 울버햄튼, 26일 EPL 경기 연기...코로나19 여파</t>
+          <t>토레스 떠나보낸 펩, 공격수 보강 원한다...맨시티는 여전히 '케인 주시'</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.24 08:55</t>
+          <t>2021.12.26 15:30</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>주전 도약한 정우영, 독일 분데스리가 프라이부르크와 재계약</t>
+          <t>아스널, 사카에게 미래 맡긴다 "2027년까지 연장계약 원해"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.24 08:54</t>
+          <t>2021.12.26 15:25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>'코로나 확산 여파'… EPL 일부 일정 '또' 연기</t>
+          <t>'36세' 모드리치 여전히 신뢰...안첼로티, "40세까지 충분히 가능"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.24 08:54</t>
+          <t>2021.12.26 15:07</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>축구대표팀 정우영, 독일 프라이부르크와 재계약</t>
+          <t>뮌헨, 코망 대체자로 '리즈 특급 윙어' 노린다...673억 준비</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.24 08:49</t>
+          <t>2021.12.26 15:02</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>'81세 축구황제' 펠레, 대장 종양 수술 마치고 퇴원</t>
+          <t>베르더 브레멘 입단한 박규현, '임대' 임박?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.24 08:34</t>
+          <t>2021.12.26 15:01</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>‘리그 강행’ EPL, 오미크론 확산에 주말 2경기 또 취소</t>
+          <t>"세계적인 명장이잖아" 토트넘 수비, 콘테 오고 리그 1위 됐다</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.24 08:33</t>
+          <t>2021.12.26 14:34</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>바르사 '유리몸' 뎀벨레와 5년 재계약, 그 속에 숨은 의도는?</t>
+          <t>10년 뛴 토트넘 레전드 미래 불투명, 콘테 감독 "문제 되지 않을 것"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.24 08:31</t>
+          <t>2021.12.26 14:27</t>
         </is>
       </c>
     </row>
